--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,10 +152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.10 第七周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：2018.10.10 第七周周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,14 +197,18 @@
   </si>
   <si>
     <t>总结：熟悉了er图的设计流程,让数据库表创建变得更加简单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.13 第七周周四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +232,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -271,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +309,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,18 +619,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:D49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.25" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -621,7 +638,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -635,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -647,7 +664,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -659,7 +676,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -673,7 +690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -685,7 +702,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -697,7 +714,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -705,13 +722,13 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -719,7 +736,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -733,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -745,7 +762,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -757,7 +774,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -765,11 +782,11 @@
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -777,11 +794,11 @@
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -789,11 +806,11 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
@@ -801,21 +818,21 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -829,7 +846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -837,11 +854,11 @@
         <v>30</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -849,11 +866,11 @@
         <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -865,7 +882,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -877,7 +894,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -889,29 +906,29 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>34</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -925,7 +942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -937,7 +954,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -949,7 +966,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -961,7 +978,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -973,7 +990,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -985,7 +1002,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
@@ -993,21 +1010,21 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1021,75 +1038,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1097,16 +1114,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A48:D49"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1120,7 +1137,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1134,7 +1151,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -152,10 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.10 第七周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,10 +167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.15 第八周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>参与er图的讨论，完成讨论并开始创建数据库表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -200,14 +187,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.13 第七周周四</t>
+    <t>日期：2018.10.10 第六周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第七周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.11 第六周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成创建数据库表，完成注册servlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成ui界面代码的编写（登录，注册）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成用例图的修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>着手编写系统管理员代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写网络交互文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,7 +427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,20 +636,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="43.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.25" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -638,7 +657,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -652,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -664,7 +683,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -676,7 +695,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -690,7 +709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -702,7 +721,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -714,7 +733,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -722,13 +741,13 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -736,7 +755,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -750,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -762,7 +781,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -774,7 +793,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -782,11 +801,11 @@
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -794,11 +813,11 @@
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -806,11 +825,11 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
@@ -818,21 +837,21 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -854,11 +873,11 @@
         <v>30</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -866,11 +885,11 @@
         <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -882,7 +901,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -894,7 +913,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -906,21 +925,21 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>46</v>
       </c>
@@ -928,7 +947,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -942,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -954,7 +973,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -966,7 +985,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -978,7 +997,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -990,7 +1009,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1002,7 +1021,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
@@ -1010,21 +1029,21 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1038,92 +1057,190 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A48:D49"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="A27:D28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A48:D49"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="A27:D28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1137,7 +1254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1151,7 +1268,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -203,10 +208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成创建数据库表，完成注册servlet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成ui界面代码的编写（登录，注册）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -215,18 +216,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>着手编写系统管理员代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写网络交互文档</t>
+    <t>完成创建数据库表，完成登陆注册servlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第八周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成接下来的服务器端servlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用android原生开发开发app客户端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善系统管理员web端代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>着手编写系统管理员web代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助app开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成网络交互文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成网络交互文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,11 +352,11 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,7 +456,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,28 +665,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.25" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -671,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -683,7 +712,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -695,7 +724,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -709,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -721,7 +750,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -733,29 +762,29 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -769,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -781,7 +810,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -793,7 +822,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -805,7 +834,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -817,7 +846,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -829,29 +858,29 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -865,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -877,7 +906,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -889,7 +918,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -901,7 +930,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -913,7 +942,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -925,29 +954,29 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -961,7 +990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -973,7 +1002,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -985,7 +1014,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -997,7 +1026,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1038,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1021,29 +1050,29 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1057,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1069,7 +1098,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1081,7 +1110,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -1093,7 +1122,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1134,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
@@ -1117,29 +1146,29 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="6" t="s">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1153,82 +1182,170 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="7" t="s">
+      <c r="C64" s="5"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A58:D59"/>
     <mergeCell ref="A41:D41"/>
@@ -1254,7 +1371,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1268,7 +1385,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -204,10 +204,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.17 第七周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成ui界面代码的编写（登录，注册）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -220,18 +216,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.17 第八周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续完成接下来的服务器端servlet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采用android原生开发开发app客户端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>继续完善系统管理员web端代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -249,6 +233,46 @@
   </si>
   <si>
     <t>完成网络交互文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.24 第八周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.22 第八周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善登陆注册功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成用户群组获取servlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助完善登陆注册功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成忘记密码servlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用android原生开发开发app客户端，完善登陆注册100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助app开发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,14 +376,17 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -679,12 +706,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -763,26 +790,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -859,26 +886,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -955,26 +982,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1051,26 +1078,26 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1147,26 +1174,26 @@
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="A51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1187,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
@@ -1199,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -1211,7 +1238,7 @@
         <v>18</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
@@ -1223,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3">
         <v>0.2</v>
@@ -1235,7 +1262,7 @@
         <v>22</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C57" s="3">
         <v>0.8</v>
@@ -1243,26 +1270,26 @@
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
+      <c r="A62" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1283,9 +1310,11 @@
         <v>7</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="2"/>
@@ -1303,9 +1332,11 @@
         <v>18</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1313,9 +1344,11 @@
         <v>20</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.3</v>
+      </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,33 +1356,117 @@
         <v>22</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A48:D49"/>
+  <mergeCells count="16">
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A79:D80"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="A27:D28"/>
@@ -1358,6 +1475,12 @@
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A48:D49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -216,14 +216,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>继续完善系统管理员web端代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>着手编写系统管理员web代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>辅助app开发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -260,10 +252,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>协助完善登陆注册功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成忘记密码servlet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -273,6 +261,34 @@
   </si>
   <si>
     <t>辅助app开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成登陆后的fragment设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成管理员登陆界面（web）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成管理员登陆界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成用户数据展示分页功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.25 第八周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成app登陆后首页姐界面设计及代码实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成群信息获取servlet，及群员资料获取servlet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -379,14 +395,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -790,18 +806,18 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -886,18 +902,18 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -982,21 +998,21 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="6"/>
@@ -1078,18 +1094,18 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -1174,22 +1190,22 @@
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1250,10 +1266,10 @@
         <v>20</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C56" s="3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -1262,7 +1278,7 @@
         <v>22</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3">
         <v>0.8</v>
@@ -1270,22 +1286,22 @@
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1310,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -1322,9 +1338,11 @@
         <v>8</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1332,10 +1350,10 @@
         <v>18</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C66" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -1344,10 +1362,10 @@
         <v>20</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C67" s="3">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -1356,7 +1374,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -1364,22 +1382,22 @@
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
+      <c r="A69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -1404,9 +1422,11 @@
         <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1414,9 +1434,11 @@
         <v>8</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.7</v>
+      </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,9 +1446,11 @@
         <v>18</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,9 +1458,11 @@
         <v>20</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.35</v>
+      </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1444,37 +1470,127 @@
         <v>22</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A79:D80"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A69:D70"/>
     <mergeCell ref="A51:D51"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -284,18 +279,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成app登陆后首页姐界面设计及代码实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成群信息获取servlet，及群员资料获取servlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成app登陆后首页界面设计及代码实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.29 第九周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成管理员系统推送功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成群详细信息获取servlet,及系统推送的servlet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,6 +399,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,9 +410,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,7 +471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +506,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,28 +715,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="43.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.25" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -743,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -755,7 +762,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -767,7 +774,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -781,7 +788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -793,7 +800,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -805,29 +812,29 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -841,7 +848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -853,7 +860,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -865,7 +872,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -877,7 +884,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -889,7 +896,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -901,29 +908,29 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -937,7 +944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -949,7 +956,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -961,7 +968,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -973,7 +980,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -985,7 +992,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -997,29 +1004,29 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1033,7 +1040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1052,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1064,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1076,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -1081,7 +1088,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1093,29 +1100,29 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1129,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1148,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1153,7 +1160,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -1165,7 +1172,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1177,7 +1184,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
@@ -1189,29 +1196,29 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -1237,7 +1244,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1256,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -1261,7 +1268,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
@@ -1273,7 +1280,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -1285,29 +1292,29 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1321,7 +1328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -1333,7 +1340,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -1345,7 +1352,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -1357,7 +1364,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>20</v>
       </c>
@@ -1369,7 +1376,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -1381,29 +1388,29 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1417,7 +1424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -1429,7 +1436,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -1441,7 +1448,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
@@ -1453,7 +1460,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>20</v>
       </c>
@@ -1465,7 +1472,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -1477,29 +1484,29 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -1513,72 +1520,172 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C86" s="5"/>
+      <c r="C86" s="5">
+        <v>0.8</v>
+      </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="5"/>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C89" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.8</v>
+      </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A48:D49"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A100:D101"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A90:D91"/>
     <mergeCell ref="A1:D1"/>
@@ -1595,8 +1702,6 @@
     <mergeCell ref="A69:D70"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A48:D49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1610,7 +1715,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1624,7 +1729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="75">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -296,13 +301,25 @@
   </si>
   <si>
     <t>完成群详细信息获取servlet,及系统推送的servlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.31 第九周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人信息所有的servlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人资料的查看，修改等</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,16 +416,16 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,7 +488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,7 +523,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,28 +732,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.25" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -750,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -762,7 +779,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -774,7 +791,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -788,7 +805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -800,7 +817,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -812,29 +829,29 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -848,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -860,7 +877,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -872,7 +889,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -884,7 +901,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -896,7 +913,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -908,29 +925,29 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -944,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -956,7 +973,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -968,7 +985,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -980,7 +997,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -992,7 +1009,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1004,29 +1021,29 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1069,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1081,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1093,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1105,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1100,29 +1117,29 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1136,7 +1153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1148,7 +1165,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +1177,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -1172,7 +1189,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1201,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
@@ -1196,29 +1213,29 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1261,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1256,7 +1273,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -1268,7 +1285,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
@@ -1280,7 +1297,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -1292,29 +1309,29 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="7" t="s">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1328,7 +1345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +1357,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +1369,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1381,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>20</v>
       </c>
@@ -1376,7 +1393,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -1388,29 +1405,29 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1424,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1453,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -1448,7 +1465,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
@@ -1460,7 +1477,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>20</v>
       </c>
@@ -1472,7 +1489,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -1484,29 +1501,29 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="6" t="s">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -1520,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -1532,7 +1549,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -1544,7 +1561,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>18</v>
       </c>
@@ -1556,7 +1573,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -1568,7 +1585,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>22</v>
       </c>
@@ -1580,29 +1597,29 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="6" t="s">
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -1616,85 +1633,166 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C95" s="5"/>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C96" s="5"/>
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C97" s="5"/>
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="8" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A48:D49"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A100:D101"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A79:D80"/>
+  <mergeCells count="22">
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A111:D112"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="A27:D28"/>
@@ -1702,6 +1800,19 @@
     <mergeCell ref="A69:D70"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A48:D49"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A100:D101"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A79:D80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1715,7 +1826,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1729,7 +1840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -313,13 +308,25 @@
   </si>
   <si>
     <t>完成个人资料的查看，修改等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成查看历史系统推送消息功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成百度地图的定位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app登陆后首页界面代码实现</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,16 +423,16 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,7 +495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,7 +530,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,26 +741,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="43.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.25" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -767,7 +774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -779,7 +786,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -791,7 +798,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -805,7 +812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -817,7 +824,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -829,29 +836,29 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -865,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -877,7 +884,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -889,7 +896,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -901,7 +908,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -913,7 +920,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -925,29 +932,29 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -961,7 +968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -973,7 +980,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -985,7 +992,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -997,7 +1004,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1016,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1021,29 +1028,29 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1057,7 +1064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1069,7 +1076,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1081,7 +1088,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -1093,7 +1100,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1112,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1117,29 +1124,29 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1153,7 +1160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1165,7 +1172,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1184,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -1189,7 +1196,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1201,7 +1208,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
@@ -1213,29 +1220,29 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1249,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1268,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1280,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -1285,7 +1292,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
@@ -1297,7 +1304,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -1309,29 +1316,29 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1345,7 +1352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -1357,7 +1364,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1376,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -1381,7 +1388,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>20</v>
       </c>
@@ -1393,7 +1400,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -1405,29 +1412,29 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1441,7 +1448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +1460,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -1465,7 +1472,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
@@ -1477,7 +1484,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>20</v>
       </c>
@@ -1489,7 +1496,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -1501,29 +1508,29 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1556,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -1561,7 +1568,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>18</v>
       </c>
@@ -1573,7 +1580,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -1585,7 +1592,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>22</v>
       </c>
@@ -1597,29 +1604,29 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -1633,7 +1640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -1645,7 +1652,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +1664,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>18</v>
       </c>
@@ -1669,7 +1676,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>20</v>
       </c>
@@ -1681,41 +1688,41 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -1729,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1746,7 @@
       <c r="C106" s="5"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>8</v>
       </c>
@@ -1749,7 +1756,7 @@
       <c r="C107" s="5"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>18</v>
       </c>
@@ -1759,38 +1766,48 @@
       <c r="C108" s="5"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B109" s="4"/>
+      <c r="B109" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C109" s="3"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B110" s="4"/>
+      <c r="B110" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C110" s="3"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="A111:D112"/>
     <mergeCell ref="A31:D31"/>
@@ -1800,11 +1817,6 @@
     <mergeCell ref="A69:D70"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A48:D49"/>
     <mergeCell ref="A93:D93"/>
@@ -1812,7 +1824,6 @@
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A90:D91"/>
     <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A79:D80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1826,7 +1837,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1840,7 +1851,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="85">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -320,6 +320,34 @@
   </si>
   <si>
     <t>app登陆后首页界面代码实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构后台框架为spring mvc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人资料的查看，修改等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.01 第九周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成群组和消息界面代码的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.05 第十周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人头像的存储修改及个人信息的修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成获取个人所有群信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -423,17 +451,17 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -753,12 +781,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -837,26 +865,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -933,26 +961,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1029,26 +1057,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1125,26 +1153,26 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1221,26 +1249,26 @@
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
@@ -1317,26 +1345,26 @@
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
@@ -1413,26 +1441,26 @@
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
@@ -1509,26 +1537,26 @@
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
@@ -1605,26 +1633,26 @@
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
@@ -1701,26 +1729,26 @@
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -1743,7 +1771,9 @@
       <c r="B106" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C106" s="5"/>
+      <c r="C106" s="5">
+        <v>1</v>
+      </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
@@ -1753,7 +1783,9 @@
       <c r="B107" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C107" s="5"/>
+      <c r="C107" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
@@ -1763,7 +1795,9 @@
       <c r="B108" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C108" s="5"/>
+      <c r="C108" s="5">
+        <v>1</v>
+      </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
@@ -1773,7 +1807,9 @@
       <c r="B109" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
@@ -1783,31 +1819,213 @@
       <c r="B110" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C110" s="3"/>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" s="5">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" s="5">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
+  <mergeCells count="26">
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A132:D133"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="A111:D112"/>
     <mergeCell ref="A31:D31"/>
@@ -1824,6 +2042,12 @@
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A90:D91"/>
     <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="89">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -348,6 +348,22 @@
   </si>
   <si>
     <t>完成获取个人所有群信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.05 第十周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成群组的所有后台编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能已完成，现优化管理员系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取群成员的定位信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -451,17 +467,17 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,12 +797,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -865,26 +881,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -961,26 +977,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1057,26 +1073,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1153,26 +1169,26 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1249,26 +1265,26 @@
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
@@ -1345,26 +1361,26 @@
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
@@ -1441,26 +1457,26 @@
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
@@ -1537,26 +1553,26 @@
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
@@ -1633,26 +1649,26 @@
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
@@ -1729,26 +1745,26 @@
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -1825,26 +1841,26 @@
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
@@ -1921,26 +1937,26 @@
       <c r="D120" s="2"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
@@ -1963,7 +1979,9 @@
       <c r="B127" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C127" s="5"/>
+      <c r="C127" s="5">
+        <v>1</v>
+      </c>
       <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
@@ -1973,7 +1991,9 @@
       <c r="B128" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C128" s="5"/>
+      <c r="C128" s="5">
+        <v>0.9</v>
+      </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
@@ -1983,7 +2003,9 @@
       <c r="B129" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C129" s="5"/>
+      <c r="C129" s="5">
+        <v>1</v>
+      </c>
       <c r="D129" s="2"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
@@ -1993,7 +2015,9 @@
       <c r="B130" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
@@ -2003,31 +2027,126 @@
       <c r="B131" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C131" s="3"/>
+      <c r="C131" s="3">
+        <v>1</v>
+      </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A121:D122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A111:D112"/>
+  <mergeCells count="28">
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A100:D101"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A79:D80"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="A27:D28"/>
@@ -2037,17 +2156,12 @@
     <mergeCell ref="A58:D59"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A48:D49"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A100:D101"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A111:D112"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="95">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -351,10 +356,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.11.05 第十周周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成群组的所有后台编写</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -364,13 +365,41 @@
   </si>
   <si>
     <t>获取群成员的定位信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.07 第十周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.08 第十周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能已完成，现优后台服务系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化情况不计入任务完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一阶段的android开发完成单元的测试文档开始编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化情况不计入任务完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成群简介的获取</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,7 +568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,7 +603,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,20 +812,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.25" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -804,7 +833,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -818,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -830,7 +859,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -842,7 +871,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -856,7 +885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -868,7 +897,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -880,7 +909,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -888,13 +917,13 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -902,7 +931,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -916,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -928,7 +957,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -940,7 +969,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -952,7 +981,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -964,7 +993,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -976,7 +1005,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
@@ -984,13 +1013,13 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -998,7 +1027,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1053,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1065,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1048,7 +1077,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1060,7 +1089,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +1101,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
@@ -1080,13 +1109,13 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
@@ -1094,7 +1123,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1149,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1161,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -1144,7 +1173,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1185,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1168,7 +1197,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
@@ -1176,13 +1205,13 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -1190,7 +1219,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1245,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1257,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -1240,7 +1269,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1252,7 +1281,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
@@ -1264,7 +1293,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
@@ -1272,13 +1301,13 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -1286,7 +1315,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1341,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1353,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -1336,7 +1365,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
@@ -1348,7 +1377,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -1360,7 +1389,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>14</v>
       </c>
@@ -1368,13 +1397,13 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
@@ -1382,7 +1411,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1437,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1449,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -1432,7 +1461,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>20</v>
       </c>
@@ -1444,7 +1473,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -1456,7 +1485,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>56</v>
       </c>
@@ -1464,13 +1493,13 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>53</v>
       </c>
@@ -1478,7 +1507,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1533,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1545,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
@@ -1528,7 +1557,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>20</v>
       </c>
@@ -1540,7 +1569,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -1552,7 +1581,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>14</v>
       </c>
@@ -1560,13 +1589,13 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>66</v>
       </c>
@@ -1574,7 +1603,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -1588,7 +1617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -1600,7 +1629,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -1612,7 +1641,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>18</v>
       </c>
@@ -1624,7 +1653,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1665,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>22</v>
       </c>
@@ -1648,7 +1677,7 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>14</v>
       </c>
@@ -1656,13 +1685,13 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>69</v>
       </c>
@@ -1670,7 +1699,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -1684,7 +1713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -1696,7 +1725,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -1708,7 +1737,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>18</v>
       </c>
@@ -1720,7 +1749,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>20</v>
       </c>
@@ -1732,7 +1761,7 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>22</v>
       </c>
@@ -1744,7 +1773,7 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>14</v>
       </c>
@@ -1752,13 +1781,13 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>72</v>
       </c>
@@ -1766,7 +1795,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -1780,7 +1809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -1792,7 +1821,7 @@
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>8</v>
       </c>
@@ -1804,7 +1833,7 @@
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>18</v>
       </c>
@@ -1816,7 +1845,7 @@
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>20</v>
       </c>
@@ -1828,7 +1857,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>22</v>
       </c>
@@ -1840,7 +1869,7 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>14</v>
       </c>
@@ -1848,13 +1877,13 @@
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>80</v>
       </c>
@@ -1862,7 +1891,7 @@
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -1876,7 +1905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -1888,7 +1917,7 @@
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>8</v>
       </c>
@@ -1900,7 +1929,7 @@
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1941,7 @@
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>20</v>
       </c>
@@ -1924,7 +1953,7 @@
       </c>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>22</v>
       </c>
@@ -1936,7 +1965,7 @@
       </c>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>14</v>
       </c>
@@ -1944,13 +1973,13 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>82</v>
       </c>
@@ -1958,7 +1987,7 @@
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +2001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>7</v>
       </c>
@@ -1984,7 +2013,7 @@
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>8</v>
       </c>
@@ -1996,7 +2025,7 @@
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>18</v>
       </c>
@@ -2008,7 +2037,7 @@
       </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -2020,7 +2049,7 @@
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>22</v>
       </c>
@@ -2032,7 +2061,7 @@
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>14</v>
       </c>
@@ -2040,21 +2069,21 @@
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -2068,57 +2097,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C137" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="C137" s="5">
+        <v>1</v>
+      </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C138" s="5"/>
+      <c r="C138" s="5">
+        <v>0.95</v>
+      </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C139" s="5"/>
+      <c r="C139" s="5">
+        <v>1</v>
+      </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C140" s="3"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D140" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C141" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1</v>
+      </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>14</v>
       </c>
@@ -2126,14 +2165,118 @@
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A48:D49"/>
     <mergeCell ref="A135:D135"/>
     <mergeCell ref="A142:D143"/>
     <mergeCell ref="A1:D1"/>
@@ -2150,18 +2293,6 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A48:D49"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A121:D122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A111:D112"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2175,7 +2306,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2189,7 +2320,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="99">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -393,13 +388,29 @@
   </si>
   <si>
     <t>完成群简介的获取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.12 第十一周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成创建群组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成第一阶段的使用手册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作显示在地图上的群成员，进行路线规划</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,7 +579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,7 +614,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -812,20 +823,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="43.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.25" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -833,7 +844,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -847,7 +858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -859,7 +870,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -871,7 +882,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -885,7 +896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -897,7 +908,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -909,7 +920,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -917,13 +928,13 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -931,7 +942,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -945,7 +956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -957,7 +968,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -969,7 +980,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -981,7 +992,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -993,7 +1004,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1005,7 +1016,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
@@ -1013,13 +1024,13 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -1027,7 +1038,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1041,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1064,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1065,7 +1076,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1088,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1089,7 +1100,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1112,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
@@ -1109,13 +1120,13 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
@@ -1123,7 +1134,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1137,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1149,7 +1160,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1172,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -1173,7 +1184,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -1185,7 +1196,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1197,7 +1208,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
@@ -1205,13 +1216,13 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -1219,7 +1230,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +1256,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1257,7 +1268,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -1269,7 +1280,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1281,7 +1292,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
@@ -1293,7 +1304,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
@@ -1301,13 +1312,13 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -1315,7 +1326,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1329,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -1341,7 +1352,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1364,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -1365,7 +1376,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
@@ -1377,7 +1388,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -1389,7 +1400,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
         <v>14</v>
       </c>
@@ -1397,13 +1408,13 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
@@ -1411,7 +1422,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1425,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -1437,7 +1448,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -1449,7 +1460,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -1461,7 +1472,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>20</v>
       </c>
@@ -1473,7 +1484,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -1485,7 +1496,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
         <v>56</v>
       </c>
@@ -1493,13 +1504,13 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>53</v>
       </c>
@@ -1507,7 +1518,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1521,7 +1532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1544,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -1545,7 +1556,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
@@ -1557,7 +1568,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>20</v>
       </c>
@@ -1569,7 +1580,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -1581,7 +1592,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>14</v>
       </c>
@@ -1589,13 +1600,13 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="6" t="s">
         <v>66</v>
       </c>
@@ -1603,7 +1614,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +1628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1640,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -1641,7 +1652,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>18</v>
       </c>
@@ -1653,7 +1664,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -1665,7 +1676,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>22</v>
       </c>
@@ -1677,7 +1688,7 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
         <v>14</v>
       </c>
@@ -1685,13 +1696,13 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>69</v>
       </c>
@@ -1699,7 +1710,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -1713,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1736,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -1737,7 +1748,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>18</v>
       </c>
@@ -1749,7 +1760,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>20</v>
       </c>
@@ -1761,7 +1772,7 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>22</v>
       </c>
@@ -1773,7 +1784,7 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
         <v>14</v>
       </c>
@@ -1781,13 +1792,13 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="6" t="s">
         <v>72</v>
       </c>
@@ -1795,7 +1806,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -1821,7 +1832,7 @@
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>8</v>
       </c>
@@ -1833,7 +1844,7 @@
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>18</v>
       </c>
@@ -1845,7 +1856,7 @@
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>20</v>
       </c>
@@ -1857,7 +1868,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>22</v>
       </c>
@@ -1869,7 +1880,7 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
         <v>14</v>
       </c>
@@ -1877,13 +1888,13 @@
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
         <v>80</v>
       </c>
@@ -1891,7 +1902,7 @@
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -1905,7 +1916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -1917,7 +1928,7 @@
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>8</v>
       </c>
@@ -1929,7 +1940,7 @@
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>18</v>
       </c>
@@ -1941,7 +1952,7 @@
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>20</v>
       </c>
@@ -1953,7 +1964,7 @@
       </c>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>22</v>
       </c>
@@ -1965,7 +1976,7 @@
       </c>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="8" t="s">
         <v>14</v>
       </c>
@@ -1973,13 +1984,13 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="6" t="s">
         <v>82</v>
       </c>
@@ -1987,7 +1998,7 @@
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -2001,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>7</v>
       </c>
@@ -2013,7 +2024,7 @@
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>8</v>
       </c>
@@ -2025,7 +2036,7 @@
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>18</v>
       </c>
@@ -2037,7 +2048,7 @@
       </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2060,7 @@
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>22</v>
       </c>
@@ -2061,7 +2072,7 @@
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="8" t="s">
         <v>14</v>
       </c>
@@ -2069,13 +2080,13 @@
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="6" t="s">
         <v>88</v>
       </c>
@@ -2083,7 +2094,7 @@
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -2097,7 +2108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>7</v>
       </c>
@@ -2109,7 +2120,7 @@
       </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>8</v>
       </c>
@@ -2121,7 +2132,7 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>18</v>
       </c>
@@ -2133,7 +2144,7 @@
       </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>20</v>
       </c>
@@ -2145,7 +2156,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>22</v>
       </c>
@@ -2157,7 +2168,7 @@
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
         <v>14</v>
       </c>
@@ -2165,13 +2176,13 @@
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="6" t="s">
         <v>89</v>
       </c>
@@ -2179,7 +2190,7 @@
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -2193,7 +2204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>7</v>
       </c>
@@ -2205,27 +2216,31 @@
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C148" s="5"/>
+      <c r="C148" s="5">
+        <v>1</v>
+      </c>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C149" s="5"/>
+      <c r="C149" s="5">
+        <v>1</v>
+      </c>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>20</v>
       </c>
@@ -2237,17 +2252,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C151" s="3"/>
+      <c r="C151" s="3">
+        <v>1</v>
+      </c>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
         <v>14</v>
       </c>
@@ -2255,26 +2272,108 @@
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
     </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A121:D122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A58:D59"/>
+  <mergeCells count="32">
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A162:D163"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A48:D49"/>
     <mergeCell ref="A135:D135"/>
@@ -2291,8 +2390,18 @@
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A79:D80"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A132:D133"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2306,7 +2415,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2320,7 +2429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="100">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -404,6 +404,10 @@
   </si>
   <si>
     <t>操作显示在地图上的群成员，进行路线规划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.14 第十一周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -507,6 +511,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,9 +521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -837,12 +841,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -921,26 +925,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1017,26 +1021,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1113,26 +1117,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1209,26 +1213,26 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1305,26 +1309,26 @@
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
@@ -1401,26 +1405,26 @@
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
@@ -1497,26 +1501,26 @@
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
@@ -1593,26 +1597,26 @@
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
@@ -1689,26 +1693,26 @@
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
@@ -1785,26 +1789,26 @@
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -1881,26 +1885,26 @@
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
@@ -1977,26 +1981,26 @@
       <c r="D120" s="2"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
@@ -2073,26 +2077,26 @@
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -2169,26 +2173,26 @@
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
@@ -2265,26 +2269,26 @@
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
@@ -2319,7 +2323,9 @@
       <c r="B158" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C158" s="5"/>
+      <c r="C158" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
@@ -2329,7 +2335,9 @@
       <c r="B159" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C159" s="5"/>
+      <c r="C159" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
@@ -2351,25 +2359,135 @@
       <c r="B161" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C171" s="3"/>
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A172:D173"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A155:D155"/>
@@ -2378,11 +2496,6 @@
     <mergeCell ref="A48:D49"/>
     <mergeCell ref="A135:D135"/>
     <mergeCell ref="A142:D143"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A93:D93"/>
     <mergeCell ref="A100:D101"/>
     <mergeCell ref="A83:D83"/>
@@ -2391,17 +2504,6 @@
     <mergeCell ref="A79:D80"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A121:D122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A132:D133"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="103">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -408,6 +408,18 @@
   </si>
   <si>
     <t>日期：2018.11.14 第十一周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.15 第十一周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成第一阶段的测试用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成群组的搜索和入群</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -511,9 +523,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,6 +530,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F159" sqref="F159"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -841,12 +853,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -925,26 +937,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1021,26 +1033,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1117,26 +1129,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1213,26 +1225,26 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1309,26 +1321,26 @@
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
@@ -1405,26 +1417,26 @@
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
@@ -1501,26 +1513,26 @@
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
@@ -1597,26 +1609,26 @@
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
@@ -1693,26 +1705,26 @@
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
@@ -1789,26 +1801,26 @@
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -1885,26 +1897,26 @@
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
@@ -1981,26 +1993,26 @@
       <c r="D120" s="2"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
@@ -2077,26 +2089,26 @@
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -2173,26 +2185,26 @@
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
@@ -2269,26 +2281,26 @@
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
@@ -2365,26 +2377,26 @@
       <c r="D161" s="2"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
@@ -2419,7 +2431,9 @@
       <c r="B168" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C168" s="5"/>
+      <c r="C168" s="5">
+        <v>1</v>
+      </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
@@ -2429,7 +2443,9 @@
       <c r="B169" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C169" s="5"/>
+      <c r="C169" s="5">
+        <v>1</v>
+      </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
@@ -2451,43 +2467,119 @@
       <c r="B171" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C171" s="3"/>
+      <c r="C171" s="3">
+        <v>0.8</v>
+      </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" s="9"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A172:D173"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A121:D122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
+  <mergeCells count="36">
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="A181:D182"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A155:D155"/>
@@ -2504,6 +2596,24 @@
     <mergeCell ref="A79:D80"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A172:D173"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A132:D133"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="106">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -420,6 +420,18 @@
   </si>
   <si>
     <t>完成群组的搜索和入群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能已完成，现优后台服务系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成入群申请通知和处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除群成员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -839,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2537,7 +2549,9 @@
       <c r="B178" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C178" s="5"/>
+      <c r="C178" s="5">
+        <v>0.3</v>
+      </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
@@ -2559,7 +2573,9 @@
       <c r="B180" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C180" s="3"/>
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
@@ -2576,8 +2592,120 @@
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
     </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192" s="9"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="A191:D192"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A172:D173"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A174:D174"/>
     <mergeCell ref="A181:D182"/>
     <mergeCell ref="A38:D39"/>
@@ -2594,26 +2722,6 @@
     <mergeCell ref="A90:D91"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A172:D173"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A121:D122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A132:D133"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="107">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -432,13 +437,17 @@
   </si>
   <si>
     <t>移除群成员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.15 第十二周周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,7 +616,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,7 +651,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -853,18 +862,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="G189" sqref="G189"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="F187" sqref="F187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.25" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -872,7 +881,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -886,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -898,7 +907,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -910,7 +919,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -924,7 +933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -936,7 +945,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -948,7 +957,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -956,13 +965,13 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -970,7 +979,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -984,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -996,7 +1005,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1008,7 +1017,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1020,7 +1029,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1032,7 +1041,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1053,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
@@ -1052,13 +1061,13 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -1066,7 +1075,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1101,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1113,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1116,7 +1125,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1128,7 +1137,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1140,7 +1149,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
@@ -1148,13 +1157,13 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
@@ -1162,7 +1171,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1176,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1197,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1209,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -1212,7 +1221,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -1224,7 +1233,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1236,7 +1245,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
@@ -1244,13 +1253,13 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -1258,7 +1267,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1272,7 +1281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1284,7 +1293,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1305,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1317,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1329,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
@@ -1332,7 +1341,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
@@ -1340,13 +1349,13 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -1354,7 +1363,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1368,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -1380,7 +1389,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1401,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -1404,7 +1413,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
@@ -1416,7 +1425,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -1428,7 +1437,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>14</v>
       </c>
@@ -1436,13 +1445,13 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
@@ -1450,7 +1459,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1464,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1485,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +1497,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -1500,7 +1509,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1521,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -1524,7 +1533,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>56</v>
       </c>
@@ -1532,13 +1541,13 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>53</v>
       </c>
@@ -1546,7 +1555,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1581,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1593,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
@@ -1596,7 +1605,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>20</v>
       </c>
@@ -1608,7 +1617,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -1620,7 +1629,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>14</v>
       </c>
@@ -1628,13 +1637,13 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>66</v>
       </c>
@@ -1642,7 +1651,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -1656,7 +1665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -1668,7 +1677,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -1680,7 +1689,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +1701,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +1713,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>22</v>
       </c>
@@ -1716,7 +1725,7 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>14</v>
       </c>
@@ -1724,13 +1733,13 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>69</v>
       </c>
@@ -1738,7 +1747,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -1752,7 +1761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -1764,7 +1773,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -1776,7 +1785,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>18</v>
       </c>
@@ -1788,7 +1797,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>20</v>
       </c>
@@ -1800,7 +1809,7 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>22</v>
       </c>
@@ -1812,7 +1821,7 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>14</v>
       </c>
@@ -1820,13 +1829,13 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>72</v>
       </c>
@@ -1834,7 +1843,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -1848,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -1860,7 +1869,7 @@
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>8</v>
       </c>
@@ -1872,7 +1881,7 @@
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>18</v>
       </c>
@@ -1884,7 +1893,7 @@
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>20</v>
       </c>
@@ -1896,7 +1905,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>22</v>
       </c>
@@ -1908,7 +1917,7 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>14</v>
       </c>
@@ -1916,13 +1925,13 @@
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>80</v>
       </c>
@@ -1930,7 +1939,7 @@
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -1944,7 +1953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1965,7 @@
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>8</v>
       </c>
@@ -1968,7 +1977,7 @@
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>18</v>
       </c>
@@ -1980,7 +1989,7 @@
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>20</v>
       </c>
@@ -1992,7 +2001,7 @@
       </c>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>22</v>
       </c>
@@ -2004,7 +2013,7 @@
       </c>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>14</v>
       </c>
@@ -2012,13 +2021,13 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>82</v>
       </c>
@@ -2026,7 +2035,7 @@
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>7</v>
       </c>
@@ -2052,7 +2061,7 @@
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>8</v>
       </c>
@@ -2064,7 +2073,7 @@
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>18</v>
       </c>
@@ -2076,7 +2085,7 @@
       </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -2088,7 +2097,7 @@
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>22</v>
       </c>
@@ -2100,7 +2109,7 @@
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>14</v>
       </c>
@@ -2108,13 +2117,13 @@
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>88</v>
       </c>
@@ -2122,7 +2131,7 @@
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -2136,7 +2145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +2157,7 @@
       </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>8</v>
       </c>
@@ -2160,7 +2169,7 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>18</v>
       </c>
@@ -2172,7 +2181,7 @@
       </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>20</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>22</v>
       </c>
@@ -2196,7 +2205,7 @@
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>14</v>
       </c>
@@ -2204,13 +2213,13 @@
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>89</v>
       </c>
@@ -2218,7 +2227,7 @@
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2253,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>8</v>
       </c>
@@ -2256,7 +2265,7 @@
       </c>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>18</v>
       </c>
@@ -2268,7 +2277,7 @@
       </c>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>20</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>22</v>
       </c>
@@ -2292,7 +2301,7 @@
       </c>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>14</v>
       </c>
@@ -2300,13 +2309,13 @@
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>95</v>
       </c>
@@ -2314,7 +2323,7 @@
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
@@ -2328,7 +2337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>7</v>
       </c>
@@ -2340,7 +2349,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>8</v>
       </c>
@@ -2352,7 +2361,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>18</v>
       </c>
@@ -2364,7 +2373,7 @@
       </c>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>20</v>
       </c>
@@ -2376,7 +2385,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>22</v>
       </c>
@@ -2388,7 +2397,7 @@
       </c>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>14</v>
       </c>
@@ -2396,13 +2405,13 @@
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>99</v>
       </c>
@@ -2410,7 +2419,7 @@
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1</v>
       </c>
@@ -2424,7 +2433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>7</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>8</v>
       </c>
@@ -2448,7 +2457,7 @@
       </c>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>18</v>
       </c>
@@ -2460,7 +2469,7 @@
       </c>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>20</v>
       </c>
@@ -2472,7 +2481,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>22</v>
       </c>
@@ -2484,7 +2493,7 @@
       </c>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>14</v>
       </c>
@@ -2492,13 +2501,13 @@
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>100</v>
       </c>
@@ -2506,7 +2515,7 @@
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>7</v>
       </c>
@@ -2532,7 +2541,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>8</v>
       </c>
@@ -2542,7 +2551,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>18</v>
       </c>
@@ -2554,7 +2563,7 @@
       </c>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>20</v>
       </c>
@@ -2566,7 +2575,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>22</v>
       </c>
@@ -2578,7 +2587,7 @@
       </c>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>14</v>
       </c>
@@ -2586,21 +2595,21 @@
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2635,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>8</v>
       </c>
@@ -2636,7 +2645,7 @@
       <c r="C187" s="5"/>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>18</v>
       </c>
@@ -2646,7 +2655,7 @@
       <c r="C188" s="5"/>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>20</v>
       </c>
@@ -2658,7 +2667,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>22</v>
       </c>
@@ -2668,7 +2677,7 @@
       <c r="C190" s="3"/>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>14</v>
       </c>
@@ -2676,7 +2685,7 @@
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -2684,44 +2693,44 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A100:D101"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A48:D49"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="A111:D112"/>
     <mergeCell ref="A184:D184"/>
     <mergeCell ref="A191:D192"/>
     <mergeCell ref="A165:D165"/>
     <mergeCell ref="A172:D173"/>
     <mergeCell ref="A145:D145"/>
     <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A121:D122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A174:D174"/>
     <mergeCell ref="A181:D182"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="A27:D28"/>
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="A162:D163"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A48:D49"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A100:D101"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A79:D80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2735,7 +2744,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2749,7 +2758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="113">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -440,14 +435,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.11.15 第十二周周一</t>
+    <t>日期：2018.11.21 第十二周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.19 第十二周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成消息页面的优化和各功能的实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成第二阶段的测试用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能已完成，协助app完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能已完成，协助app完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,7 +635,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -651,7 +670,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,20 +879,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F187" sqref="F187"/>
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="43.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.25" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -881,7 +900,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -895,7 +914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -907,7 +926,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -919,7 +938,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -933,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -945,7 +964,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -957,7 +976,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -965,13 +984,13 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -979,7 +998,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -993,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1005,7 +1024,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1017,7 +1036,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +1048,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1041,7 +1060,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1072,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
@@ -1061,13 +1080,13 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -1075,7 +1094,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1089,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1120,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1132,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1125,7 +1144,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1137,7 +1156,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1149,7 +1168,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
@@ -1157,13 +1176,13 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
@@ -1171,7 +1190,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1216,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1209,7 +1228,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -1221,7 +1240,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -1233,7 +1252,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1245,7 +1264,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
@@ -1253,13 +1272,13 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -1267,7 +1286,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1281,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1312,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1305,7 +1324,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1336,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1329,7 +1348,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
@@ -1341,7 +1360,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
@@ -1349,13 +1368,13 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -1363,7 +1382,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1377,7 +1396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1408,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1401,7 +1420,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -1413,7 +1432,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1444,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -1437,7 +1456,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
         <v>14</v>
       </c>
@@ -1445,13 +1464,13 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>54</v>
       </c>
@@ -1459,7 +1478,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -1485,7 +1504,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1516,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -1509,7 +1528,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>20</v>
       </c>
@@ -1521,7 +1540,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -1533,7 +1552,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
         <v>56</v>
       </c>
@@ -1541,13 +1560,13 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>53</v>
       </c>
@@ -1555,7 +1574,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1569,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -1581,7 +1600,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -1593,7 +1612,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
@@ -1605,7 +1624,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>20</v>
       </c>
@@ -1617,7 +1636,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -1629,7 +1648,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>14</v>
       </c>
@@ -1637,13 +1656,13 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="6" t="s">
         <v>66</v>
       </c>
@@ -1651,7 +1670,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -1665,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1696,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -1689,7 +1708,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +1720,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -1713,7 +1732,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>22</v>
       </c>
@@ -1725,7 +1744,7 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
         <v>14</v>
       </c>
@@ -1733,13 +1752,13 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>69</v>
       </c>
@@ -1747,7 +1766,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -1761,7 +1780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -1773,7 +1792,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -1785,7 +1804,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1816,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>20</v>
       </c>
@@ -1809,7 +1828,7 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>22</v>
       </c>
@@ -1821,7 +1840,7 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
         <v>14</v>
       </c>
@@ -1829,13 +1848,13 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="6" t="s">
         <v>72</v>
       </c>
@@ -1843,7 +1862,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -1857,7 +1876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -1869,7 +1888,7 @@
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>8</v>
       </c>
@@ -1881,7 +1900,7 @@
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>18</v>
       </c>
@@ -1893,7 +1912,7 @@
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>20</v>
       </c>
@@ -1905,7 +1924,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>22</v>
       </c>
@@ -1917,7 +1936,7 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
         <v>14</v>
       </c>
@@ -1925,13 +1944,13 @@
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
         <v>80</v>
       </c>
@@ -1939,7 +1958,7 @@
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +1972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -1965,7 +1984,7 @@
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>8</v>
       </c>
@@ -1977,7 +1996,7 @@
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>18</v>
       </c>
@@ -1989,7 +2008,7 @@
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>20</v>
       </c>
@@ -2001,7 +2020,7 @@
       </c>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>22</v>
       </c>
@@ -2013,7 +2032,7 @@
       </c>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="8" t="s">
         <v>14</v>
       </c>
@@ -2021,13 +2040,13 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="6" t="s">
         <v>82</v>
       </c>
@@ -2035,7 +2054,7 @@
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -2049,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>7</v>
       </c>
@@ -2061,7 +2080,7 @@
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>8</v>
       </c>
@@ -2073,7 +2092,7 @@
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>18</v>
       </c>
@@ -2085,7 +2104,7 @@
       </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -2097,7 +2116,7 @@
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>22</v>
       </c>
@@ -2109,7 +2128,7 @@
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="8" t="s">
         <v>14</v>
       </c>
@@ -2117,13 +2136,13 @@
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="6" t="s">
         <v>88</v>
       </c>
@@ -2131,7 +2150,7 @@
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -2145,7 +2164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>7</v>
       </c>
@@ -2157,7 +2176,7 @@
       </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2188,7 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>18</v>
       </c>
@@ -2181,7 +2200,7 @@
       </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>20</v>
       </c>
@@ -2193,7 +2212,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>22</v>
       </c>
@@ -2205,7 +2224,7 @@
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
         <v>14</v>
       </c>
@@ -2213,13 +2232,13 @@
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="6" t="s">
         <v>89</v>
       </c>
@@ -2227,7 +2246,7 @@
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -2241,7 +2260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>7</v>
       </c>
@@ -2253,7 +2272,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>8</v>
       </c>
@@ -2265,7 +2284,7 @@
       </c>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>18</v>
       </c>
@@ -2277,7 +2296,7 @@
       </c>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>20</v>
       </c>
@@ -2289,7 +2308,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>22</v>
       </c>
@@ -2301,7 +2320,7 @@
       </c>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2328,13 @@
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
         <v>95</v>
       </c>
@@ -2323,7 +2342,7 @@
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
@@ -2337,7 +2356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2368,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>8</v>
       </c>
@@ -2361,7 +2380,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>18</v>
       </c>
@@ -2373,7 +2392,7 @@
       </c>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>20</v>
       </c>
@@ -2385,7 +2404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>22</v>
       </c>
@@ -2397,7 +2416,7 @@
       </c>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="8" t="s">
         <v>14</v>
       </c>
@@ -2405,13 +2424,13 @@
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
         <v>99</v>
       </c>
@@ -2419,7 +2438,7 @@
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>1</v>
       </c>
@@ -2433,7 +2452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>7</v>
       </c>
@@ -2445,7 +2464,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>8</v>
       </c>
@@ -2457,7 +2476,7 @@
       </c>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>18</v>
       </c>
@@ -2469,7 +2488,7 @@
       </c>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>20</v>
       </c>
@@ -2481,7 +2500,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>22</v>
       </c>
@@ -2493,7 +2512,7 @@
       </c>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="8" t="s">
         <v>14</v>
       </c>
@@ -2501,13 +2520,13 @@
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
         <v>100</v>
       </c>
@@ -2515,7 +2534,7 @@
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>1</v>
       </c>
@@ -2529,7 +2548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>7</v>
       </c>
@@ -2541,7 +2560,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>8</v>
       </c>
@@ -2551,7 +2570,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>18</v>
       </c>
@@ -2563,7 +2582,7 @@
       </c>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>20</v>
       </c>
@@ -2575,7 +2594,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>22</v>
       </c>
@@ -2587,7 +2606,7 @@
       </c>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="8" t="s">
         <v>14</v>
       </c>
@@ -2595,21 +2614,21 @@
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
@@ -2623,7 +2642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>7</v>
       </c>
@@ -2635,27 +2654,31 @@
         <v>91</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C187" s="5"/>
+      <c r="C187" s="5">
+        <v>1</v>
+      </c>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C188" s="5"/>
+      <c r="C188" s="5">
+        <v>1</v>
+      </c>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
         <v>20</v>
       </c>
@@ -2667,17 +2690,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C190" s="3"/>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="8" t="s">
         <v>14</v>
       </c>
@@ -2685,42 +2710,106 @@
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
     </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C196" s="5"/>
+      <c r="D196" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201" s="9"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="9"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202" s="9"/>
+      <c r="B202" s="9"/>
+      <c r="C202" s="9"/>
+      <c r="D202" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A100:D101"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A48:D49"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A121:D122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="A111:D112"/>
+  <mergeCells count="40">
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A201:D202"/>
     <mergeCell ref="A184:D184"/>
     <mergeCell ref="A191:D192"/>
     <mergeCell ref="A165:D165"/>
@@ -2731,6 +2820,34 @@
     <mergeCell ref="A181:D182"/>
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="A162:D163"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A48:D49"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A100:D101"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="A111:D112"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2744,7 +2861,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2758,7 +2875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="115">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -435,10 +435,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.11.21 第十二周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：2018.11.19 第十二周周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -460,6 +456,18 @@
   </si>
   <si>
     <t>基本功能已完成，协助app完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.21 第十二周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助情况不计入任务完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.26 第十三周周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2622,7 +2630,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -2718,7 +2726,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -2743,11 +2751,11 @@
         <v>7</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
@@ -2755,9 +2763,11 @@
         <v>8</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C197" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="C197" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
@@ -2765,9 +2775,11 @@
         <v>18</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C198" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="C198" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D198" s="2"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
@@ -2775,11 +2787,11 @@
         <v>20</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
@@ -2787,9 +2799,11 @@
         <v>22</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C200" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="C200" s="3">
+        <v>0.8</v>
+      </c>
       <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
@@ -2806,36 +2820,100 @@
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
     </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="D206" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C207" s="5"/>
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C208" s="5"/>
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212" s="9"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="9"/>
+      <c r="D212" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A201:D202"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="A191:D192"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A172:D173"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A174:D174"/>
-    <mergeCell ref="A181:D182"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A162:D163"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A48:D49"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
+  <mergeCells count="42">
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A211:D212"/>
     <mergeCell ref="A135:D135"/>
     <mergeCell ref="A142:D143"/>
     <mergeCell ref="A93:D93"/>
@@ -2848,6 +2926,34 @@
     <mergeCell ref="A125:D125"/>
     <mergeCell ref="A132:D133"/>
     <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A48:D49"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="A181:D182"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A162:D163"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A201:D202"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="A191:D192"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A172:D173"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="118">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成聊天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>基本功能已完成，协助app完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -468,6 +464,22 @@
   </si>
   <si>
     <t>日期：2018.11.26 第十三周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.28 第十三周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成单聊聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成群聊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待最终程序的测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -887,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+      <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2726,7 +2738,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -2751,11 +2763,11 @@
         <v>7</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
@@ -2787,11 +2799,11 @@
         <v>20</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
@@ -2799,7 +2811,7 @@
         <v>22</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C200" s="3">
         <v>0.8</v>
@@ -2822,7 +2834,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -2847,11 +2859,11 @@
         <v>7</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
@@ -2861,7 +2873,9 @@
       <c r="B207" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C207" s="5"/>
+      <c r="C207" s="5">
+        <v>0.7</v>
+      </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
@@ -2871,7 +2885,9 @@
       <c r="B208" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C208" s="5"/>
+      <c r="C208" s="5">
+        <v>1</v>
+      </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
@@ -2879,11 +2895,11 @@
         <v>20</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
@@ -2891,9 +2907,11 @@
         <v>22</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C210" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="C210" s="3">
+        <v>1</v>
+      </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
@@ -2910,38 +2928,134 @@
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
     </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C216" s="5"/>
+      <c r="D216" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C217" s="5"/>
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C218" s="5"/>
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C220" s="3"/>
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222" s="9"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="9"/>
+      <c r="D222" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="44">
+    <mergeCell ref="A221:D222"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="A191:D192"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A172:D173"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A48:D49"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A111:D112"/>
     <mergeCell ref="A204:D204"/>
     <mergeCell ref="A211:D212"/>
     <mergeCell ref="A135:D135"/>
     <mergeCell ref="A142:D143"/>
     <mergeCell ref="A93:D93"/>
     <mergeCell ref="A100:D101"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A121:D122"/>
     <mergeCell ref="A125:D125"/>
     <mergeCell ref="A132:D133"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A48:D49"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A58:D59"/>
     <mergeCell ref="A145:D145"/>
     <mergeCell ref="A152:D153"/>
     <mergeCell ref="A174:D174"/>
@@ -2950,10 +3064,6 @@
     <mergeCell ref="A162:D163"/>
     <mergeCell ref="A194:D194"/>
     <mergeCell ref="A201:D202"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="A191:D192"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A172:D173"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第13组/13项目计划表.xlsx
+++ b/第13组/13项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="122">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -480,6 +480,22 @@
   </si>
   <si>
     <t>等待最终程序的测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.12.5 第十四周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能已完成，开始优化客户端和解决bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能已完成，开始优化客户端和解决bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能已完成，协助app完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -583,17 +599,17 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="F216" sqref="F216"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -913,12 +929,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -997,26 +1013,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1093,26 +1109,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1189,26 +1205,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1285,26 +1301,26 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1381,26 +1397,26 @@
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
@@ -1477,26 +1493,26 @@
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
@@ -1573,26 +1589,26 @@
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
@@ -1669,26 +1685,26 @@
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
@@ -1765,26 +1781,26 @@
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
@@ -1861,26 +1877,26 @@
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -1957,26 +1973,26 @@
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
@@ -2053,26 +2069,26 @@
       <c r="D120" s="2"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
@@ -2149,26 +2165,26 @@
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -2245,26 +2261,26 @@
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
@@ -2341,26 +2357,26 @@
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
@@ -2437,26 +2453,26 @@
       <c r="D161" s="2"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
@@ -2533,26 +2549,26 @@
       <c r="D171" s="2"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
@@ -2627,26 +2643,26 @@
       <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="9"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="6" t="s">
+      <c r="A184" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
@@ -2723,26 +2739,26 @@
       <c r="D190" s="2"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
+      <c r="A192" s="7"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="6" t="s">
+      <c r="A194" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B194" s="7"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
@@ -2819,26 +2835,26 @@
       <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201" s="8" t="s">
+      <c r="A201" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
-      <c r="D202" s="9"/>
+      <c r="A202" s="7"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B204" s="7"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="7"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="9"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
@@ -2915,26 +2931,26 @@
       <c r="D210" s="2"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="9"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A212" s="9"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
+      <c r="A212" s="7"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B214" s="7"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
@@ -2969,7 +2985,9 @@
       <c r="B217" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C217" s="5"/>
+      <c r="C217" s="5">
+        <v>1</v>
+      </c>
       <c r="D217" s="2"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
@@ -2989,7 +3007,9 @@
       <c r="B219" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C219" s="3"/>
+      <c r="C219" s="3">
+        <v>1</v>
+      </c>
       <c r="D219" s="4" t="s">
         <v>112</v>
       </c>
@@ -3005,63 +3025,155 @@
       <c r="D220" s="2"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
+      <c r="A222" s="7"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B224" s="9"/>
+      <c r="C224" s="9"/>
+      <c r="D224" s="9"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A225" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A226" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C226" s="5"/>
+      <c r="D226" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C227" s="5"/>
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A228" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C228" s="5"/>
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A229" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C229" s="3"/>
+      <c r="D229" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A230" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C230" s="3"/>
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A231" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231" s="7"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A232" s="7"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="46">
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A231:D232"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="A181:D182"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A162:D163"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A100:D101"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A48:D49"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D59"/>
     <mergeCell ref="A221:D222"/>
     <mergeCell ref="A184:D184"/>
     <mergeCell ref="A191:D192"/>
     <mergeCell ref="A165:D165"/>
     <mergeCell ref="A172:D173"/>
     <mergeCell ref="A214:D214"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A48:D49"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A121:D122"/>
-    <mergeCell ref="A111:D112"/>
     <mergeCell ref="A204:D204"/>
     <mergeCell ref="A211:D212"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A100:D101"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A174:D174"/>
-    <mergeCell ref="A181:D182"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A162:D163"/>
     <mergeCell ref="A194:D194"/>
     <mergeCell ref="A201:D202"/>
   </mergeCells>
